--- a/Pandas/read_excel/mini_project/pandas.xlsx
+++ b/Pandas/read_excel/mini_project/pandas.xlsx
@@ -28,22 +28,22 @@
     <t>shiv</t>
   </si>
   <si>
-    <t>shif</t>
-  </si>
-  <si>
-    <t>pranja;</t>
+    <t>pranjal</t>
+  </si>
+  <si>
+    <t>bhavya</t>
   </si>
   <si>
     <t>soni</t>
   </si>
   <si>
-    <t>sfno</t>
-  </si>
-  <si>
     <t>sharma</t>
   </si>
   <si>
-    <t>21</t>
+    <t>agrawal</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
 </sst>
 </file>
@@ -437,7 +437,7 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3">
